--- a/testData/WebForm/TC029_WF_RRY_OneYN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC029_WF_RRY_OneYN_TwoYN_Test.xlsx
@@ -298,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,20 +324,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -392,49 +378,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -445,10 +394,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -733,7 +678,7 @@
   <dimension ref="A1:BG10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O2" sqref="O2:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +908,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +952,7 @@
         <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
@@ -1179,8 +1124,8 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>48</v>
+      <c r="O3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.35">
@@ -1226,11 +1171,11 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>48</v>
+      <c r="O4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1273,8 +1218,8 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>48</v>
+      <c r="O5" t="s">
+        <v>17</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1322,7 +1267,7 @@
         <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.35">
@@ -1368,8 +1313,8 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>48</v>
+      <c r="O7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.35">
@@ -1413,7 +1358,7 @@
         <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.35">
@@ -1459,8 +1404,8 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>48</v>
+      <c r="O9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.35">
@@ -1504,7 +1449,7 @@
         <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC029_WF_RRY_OneYN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC029_WF_RRY_OneYN_TwoYN_Test.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="103">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -261,43 +261,80 @@
     <t>White</t>
   </si>
   <si>
-    <t>9840084622</t>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>9840082134</t>
+  </si>
+  <si>
+    <t>9840006347</t>
+  </si>
+  <si>
+    <t>9840022632</t>
+  </si>
+  <si>
+    <t>9840054281</t>
+  </si>
+  <si>
+    <t>9840065387</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9840021914</t>
+  </si>
+  <si>
+    <t>9840048126</t>
+  </si>
+  <si>
+    <t>9840021606</t>
+  </si>
+  <si>
+    <t>9840077989</t>
+  </si>
+  <si>
+    <t>9840039077</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>9840056643</t>
-  </si>
-  <si>
-    <t>9840053958</t>
-  </si>
-  <si>
-    <t>9840061221</t>
-  </si>
-  <si>
-    <t>9840040300</t>
+    <t>9840089854</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840016875</t>
+  </si>
+  <si>
+    <t>9840023413</t>
+  </si>
+  <si>
+    <t>9840099492</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>9840059486</t>
-  </si>
-  <si>
-    <t>9840088735</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>9840009690</t>
+  </si>
+  <si>
+    <t>9840048061</t>
+  </si>
+  <si>
+    <t>9840059353</t>
+  </si>
+  <si>
+    <t>9840027940</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,93 +714,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O10"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.54296875" customWidth="1"/>
-    <col min="20" max="20" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" customWidth="1"/>
-    <col min="23" max="23" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.6328125" customWidth="1"/>
-    <col min="34" max="35" width="15.26953125" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.81640625" customWidth="1"/>
-    <col min="38" max="38" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="15.26953125" customWidth="1"/>
-    <col min="44" max="44" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11.453125" customWidth="1"/>
-    <col min="47" max="47" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="48" max="54" width="11.453125" customWidth="1"/>
-    <col min="55" max="55" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="19" max="19" customWidth="true" width="10.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="22" max="22" customWidth="true" width="10.5703125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="25" max="25" customWidth="true" width="10.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="33" customWidth="true" width="9.5703125"/>
+    <col min="34" max="35" customWidth="true" width="15.28515625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="37" max="37" customWidth="true" width="17.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="39" max="40" bestFit="true" customWidth="true" width="13.85546875"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="42" max="43" customWidth="true" width="15.28515625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="45" max="46" customWidth="true" width="11.42578125"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="48" max="54" customWidth="true" width="11.42578125"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="10.7109375"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -772,143 +809,143 @@
       <c r="N1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" t="s" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -918,31 +955,31 @@
       <c r="C2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
-        <v>80</v>
+      <c r="F2" t="s" s="0">
+        <v>91</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M2" s="4" t="s">
@@ -951,43 +988,43 @@
       <c r="N2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="S2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="U2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="W2" t="s">
-        <v>17</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="W2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="X2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="AA2" t="s" s="0">
         <v>48</v>
       </c>
       <c r="AB2" s="8" t="s">
@@ -1017,20 +1054,20 @@
       <c r="AJ2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>29</v>
       </c>
       <c r="AL2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>87</v>
+      <c r="AM2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="AN2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="AO2" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="AP2" s="9" t="s">
         <v>74</v>
@@ -1042,7 +1079,7 @@
         <v>48</v>
       </c>
       <c r="AS2" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>17</v>
@@ -1081,7 +1118,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1091,28 +1128,28 @@
       <c r="C3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>83</v>
+      <c r="F3" t="s" s="0">
+        <v>93</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L3" s="4" t="s">
@@ -1124,11 +1161,11 @@
       <c r="N3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1138,28 +1175,28 @@
       <c r="C4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>84</v>
+      <c r="F4" t="s" s="0">
+        <v>95</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1171,11 +1208,11 @@
       <c r="N4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,28 +1222,28 @@
       <c r="C5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>85</v>
+      <c r="F5" t="s" s="0">
+        <v>96</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -1218,12 +1255,12 @@
       <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" t="s" s="0">
         <v>17</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,31 +1270,31 @@
       <c r="C6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>86</v>
+      <c r="F6" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>41</v>
       </c>
       <c r="M6" s="4" t="s">
@@ -1266,11 +1303,11 @@
       <c r="N6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1280,14 +1317,14 @@
       <c r="C7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" t="s">
-        <v>88</v>
+      <c r="F7" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1295,16 +1332,16 @@
       <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>40</v>
       </c>
       <c r="M7" s="4" t="s">
@@ -1313,11 +1350,11 @@
       <c r="N7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1327,28 +1364,31 @@
       <c r="C8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s" s="0">
+        <v>100</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1357,11 +1397,11 @@
       <c r="N8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1371,31 +1411,31 @@
       <c r="C9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>89</v>
+      <c r="F9" t="s" s="0">
+        <v>101</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>66</v>
       </c>
       <c r="M9" s="4" t="s">
@@ -1404,11 +1444,11 @@
       <c r="N9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1418,28 +1458,31 @@
       <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="F10" t="s" s="0">
+        <v>102</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>39</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1448,7 +1491,7 @@
       <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" t="s" s="0">
         <v>17</v>
       </c>
     </row>

--- a/testData/WebForm/TC029_WF_RRY_OneYN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC029_WF_RRY_OneYN_TwoYN_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -328,6 +328,33 @@
   </si>
   <si>
     <t>9840027940</t>
+  </si>
+  <si>
+    <t>9840062870</t>
+  </si>
+  <si>
+    <t>9840032877</t>
+  </si>
+  <si>
+    <t>9840054242</t>
+  </si>
+  <si>
+    <t>9840090392</t>
+  </si>
+  <si>
+    <t>9840082483</t>
+  </si>
+  <si>
+    <t>9840071543</t>
+  </si>
+  <si>
+    <t>9840004288</t>
+  </si>
+  <si>
+    <t>9840024589</t>
+  </si>
+  <si>
+    <t>9840040355</t>
   </si>
 </sst>
 </file>
@@ -962,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1061,13 +1088,13 @@
         <v>78</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AN2" t="s" s="0">
         <v>92</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AP2" s="9" t="s">
         <v>74</v>
@@ -1135,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1182,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1229,7 +1256,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1277,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1324,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1371,7 +1398,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1418,7 +1445,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1465,7 +1492,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>

--- a/testData/WebForm/TC029_WF_RRY_OneYN_TwoYN_Test.xlsx
+++ b/testData/WebForm/TC029_WF_RRY_OneYN_TwoYN_Test.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="5310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="95">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -264,97 +265,46 @@
     <t>Susan</t>
   </si>
   <si>
-    <t>9840082134</t>
-  </si>
-  <si>
-    <t>9840006347</t>
-  </si>
-  <si>
-    <t>9840022632</t>
-  </si>
-  <si>
-    <t>9840054281</t>
-  </si>
-  <si>
-    <t>9840065387</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>9840021914</t>
-  </si>
-  <si>
-    <t>9840048126</t>
-  </si>
-  <si>
-    <t>9840021606</t>
-  </si>
-  <si>
-    <t>9840077989</t>
-  </si>
-  <si>
-    <t>9840039077</t>
+    <t>9840062870</t>
+  </si>
+  <si>
+    <t>9840054242</t>
+  </si>
+  <si>
+    <t>9840090392</t>
+  </si>
+  <si>
+    <t>9840082483</t>
+  </si>
+  <si>
+    <t>9840004288</t>
+  </si>
+  <si>
+    <t>9840024589</t>
+  </si>
+  <si>
+    <t>9840040355</t>
+  </si>
+  <si>
+    <t>9840016817</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9840030291</t>
+  </si>
+  <si>
+    <t>9840088221</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>9840089854</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9840016875</t>
-  </si>
-  <si>
-    <t>9840023413</t>
-  </si>
-  <si>
-    <t>9840099492</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9840009690</t>
-  </si>
-  <si>
-    <t>9840048061</t>
-  </si>
-  <si>
-    <t>9840059353</t>
-  </si>
-  <si>
-    <t>9840027940</t>
-  </si>
-  <si>
-    <t>9840062870</t>
-  </si>
-  <si>
-    <t>9840032877</t>
-  </si>
-  <si>
-    <t>9840054242</t>
-  </si>
-  <si>
-    <t>9840090392</t>
-  </si>
-  <si>
-    <t>9840082483</t>
-  </si>
-  <si>
-    <t>9840071543</t>
-  </si>
-  <si>
-    <t>9840004288</t>
-  </si>
-  <si>
-    <t>9840024589</t>
-  </si>
-  <si>
-    <t>9840040355</t>
+    <t>9840066825</t>
   </si>
 </sst>
 </file>
@@ -741,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +939,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
@@ -1016,7 +966,7 @@
         <v>51</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>67</v>
@@ -1088,13 +1038,13 @@
         <v>78</v>
       </c>
       <c r="AM2" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AP2" s="9" t="s">
         <v>74</v>
@@ -1162,7 +1112,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
@@ -1209,7 +1159,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
@@ -1236,7 +1186,7 @@
         <v>51</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -1256,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -1283,7 +1233,7 @@
         <v>45</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="4"/>
     </row>
@@ -1304,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -1331,7 +1281,7 @@
         <v>52</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -1351,7 +1301,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>11</v>
@@ -1398,7 +1348,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>11</v>
@@ -1425,7 +1375,7 @@
         <v>52</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -1445,7 +1395,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>11</v>
@@ -1472,7 +1422,7 @@
         <v>45</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -1492,7 +1442,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1519,7 +1469,7 @@
         <v>52</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
